--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/21_Bursa_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/21_Bursa_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8AD1CEF-0CCC-45FD-8045-C9AD1E25B25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC5A12E6-1817-4302-AC8A-7C518C9FBDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{723F4705-BD28-47C1-8907-160CAE8CAC26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{840058BB-9AF1-4484-B04F-5B63623D7B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="105" r:id="rId1"/>
@@ -952,13 +952,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{0F50C596-2612-47BF-BD6F-CB354A7697F6}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E43F72F3-1956-4B00-A508-9A9E38CD6312}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{398C5259-4448-4DD3-9D0E-11D7D978EA95}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{01EB05A4-F6C5-4B22-A73B-798ED61B62C4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{9DEB9471-0614-48A5-BE6B-D874A5884D43}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{6DDB0B9F-9C03-448C-AC84-FF1BE25A1784}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{63541896-8FD7-4ACF-A1DD-59DFB0FFD36B}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{E459E938-DCEC-4C3F-BF79-20C04D67BF41}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{551DAEA9-5AB6-4B0A-A474-8F33E02A4B2C}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{12BF4D85-9DE3-4585-8F80-C6B476964BD5}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{256A0B50-CDF7-4987-ADBB-5ADA206B5E67}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{93F9E4FC-61E2-40DA-9A89-61F9B598A350}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{54CEFC32-F118-4C7C-ABE5-AFCF26C7962D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A9E906E5-1456-4B21-9015-A3DA67F62E9C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1143426D-0854-4CBB-8A32-050CBF36BFCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E927D87-C645-4E41-966B-8A6FA31CB72E}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2610,18 +2610,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C0E06C7-0F3E-419F-ACAD-B2F50E4EEB72}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB065149-792C-44A2-B673-C719DA90A999}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4BF24280-37BA-489D-A79B-E5C26271269A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{85FCD65C-AD32-4742-A018-1389A84C7772}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5B989E1C-CAE2-4EA5-8A89-5AD5D7675DF0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B76E025F-38A7-458F-A7CC-31FE980326B7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3952516A-F4B5-4B2B-88DD-DC342B4CF1BA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{35B1A702-EC4F-41F7-B3DA-006FAF165F19}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2B205CD-D6B8-4011-A6A2-EB8A89E94CB8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{519D7F9C-8693-4191-9711-9DA83E5FD655}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{84D0CC5C-8F81-4E37-A1EE-136167D001F1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A254A5CB-4D02-4ADD-AB6C-C8066987D163}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0ADF4252-82C1-45F4-836E-8523E08E4B1E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C2379626-8DCB-4451-9BC2-1DB02CAB5505}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1AB9CBF3-41AB-4088-A796-1C7B16E6DF1D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{74BB779F-D104-4FC0-BE96-CA5DC670A8DA}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7A6330A2-0C0E-4A83-BB4C-B454D44C2BB1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C8AA5CA5-815A-4ACF-961C-580E99CE9142}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0665B04C-64AB-4F04-8394-598BF57C6C96}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{86034081-3B0D-441F-B4D2-C35F9321D64C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{370B87B9-AFDD-4B57-A63B-E78F512B8AF8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E05BE9D1-2042-4172-99A5-860A7FD65E85}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0666175C-C309-4EFC-ABBA-D108E363A0EC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5B112E8C-EA71-4913-BD5A-C827B3EF8F64}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2634,7 +2634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFF85FB-2825-4201-9173-8A448767D807}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B74EA3E-C4F7-4704-8368-F88A48F6797C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3899,18 +3899,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D30371F-953E-4A9E-8982-4D460EC3751D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{45238FBC-3AE4-4BF4-AF54-71CB75A936FA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{32D0F70B-C4A0-4E67-8CC1-B57F7DFD9A57}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A47FFDCF-FF6D-4015-BD03-C2BE0A3AE009}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{EE27D20E-3767-4D0B-8E18-87B7ED7C2F42}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{777F0614-70DA-47F1-A988-84AAC3DE246D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{408FC601-EBA2-4816-A297-17BE22B6D397}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DE6DBD7E-32CA-4CA9-A846-D3060FA59A2A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6012FB5-5D5F-4EB3-A0DA-4802DE20161F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B35469CA-EAA7-43FD-AF70-C714D034FFDE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13D6DB57-60D5-43B8-9FBA-BBDED1EA6758}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C4AC93C1-74A6-497D-9C35-9B63145D5B65}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0D9ACF5D-31EB-409C-B783-7980B882E9FA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31DA1C05-CE58-4F5B-ACF4-8710D6612DB7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CD68CD21-3D30-4E09-8FF7-5076EFBCA6FA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3CD6477A-B28C-404A-9AF6-ECFB99FD38AC}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B09DBAD7-A2DD-4EF4-A1C1-CBBA1CD18D35}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{51C40E62-8AEC-47C3-8C32-54A9C1940CD6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F712DEDC-438A-463B-B8C5-E1B314A591D9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{454302FB-9E37-426F-AAA0-93A8FE709AF8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{005B30C1-5384-49F4-969E-A684AD5FFC28}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5770A66B-910E-4A2A-BAEE-6BAC277EDB20}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45819717-6037-46F0-BB1A-4529CA73C6F9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8BC543BF-CB4B-431C-AB7E-F6D9560B12DC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3923,7 +3923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945A1907-BF44-45A2-86B8-2DAC4412885A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654C5DD1-6751-476C-83E6-0F06243CED9E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5186,18 +5186,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6A1F4DB9-7C41-45F5-9FE8-F0E354126DD9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{64D1E0DA-B711-465D-A9D4-E7422B836A02}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3CB5941F-565A-41D6-BDA0-3E4F1477364B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BD0722CA-58DF-4382-AB6B-27D909E32782}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B00A335D-0C5F-46E5-A866-4D0595A150B4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F2ECF1E2-52E7-49C8-B965-C635D5D7B842}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{06E95DF2-0B7C-47C1-9D58-AB78AF368CE2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3009B140-102C-4994-9E6C-C163EEF4F5C1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB89B251-B064-4CF5-B02A-A668EF819640}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{89B53321-A49A-4DF3-9561-9DF8D04D1502}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4B671FB-B718-4192-9710-CA70D7D33F71}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{76BCEE9B-8008-43EB-91E4-55D4FB20BC5C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7317CA0B-835B-42CC-AA3F-30CA77E6E51F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{973B814F-6B1F-45CF-BD3F-5C10EF49AFBE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2A6F2C1F-50AF-4CC8-8FCC-ECF28B2CA5BA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{69A4CE95-D782-4973-B9E9-D6ACAFF0F211}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2D7FE61B-A2CF-44AC-A5DB-327D305713A6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{63B502CE-2554-477D-9923-3B73A5CFC9EF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{871532B2-EF07-4EC2-B6CB-CB6C4A7B5861}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{937EE989-38BC-42CB-B1A1-937C6E48A2CF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B0E5FD9-9019-4E3A-BE4F-179B2F1C3666}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C32978C2-ACEC-404F-BF6B-C3476D9C4AB3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{25B17450-2462-482B-B4AD-F8A0A8F245D6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{985ACEF5-90E5-4A03-83C0-D9237CC92FF1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5210,7 +5210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863997E6-E33C-44A0-B1DF-F6BF84844410}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32B451A-E352-4599-8D66-1826E5FE4C1D}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6474,18 +6474,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3AB5293E-9FD2-4EE9-8E7A-C8999E5AC23A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5D5610C-A35F-4B7A-B9B6-0263D52138CC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B62D97D7-C974-42CA-B112-566E149A4069}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9D6C1272-1364-42B7-9B1B-552404096244}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1FB98E04-3323-485E-A41C-4D6C9F1EBA20}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{18BEF058-773D-4AA5-B005-F90576EB89DB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BFED44B6-CA45-4467-B27A-B8F78EFF0986}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C8CDF6B7-D98F-4E97-A5BC-0997E59F0E3A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C675758F-3194-4176-ADD2-22F776AEAEB7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{296CE9B2-8140-4516-B06D-C7DFFAA9082F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E5909FB7-D19D-41C3-A62F-752D9CF434BF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{348D5F07-E0BA-4525-A637-63F5ED272086}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E296B9A-B762-4F7A-852F-B9FA560E72EB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{030CEF59-6E45-4BFB-AE48-A71958654110}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A36BCABB-2741-4316-BAE0-85A7ADB3AEBD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F127E8C2-AB5F-403C-88BB-62841364A943}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4ED40E8E-94E6-44F7-AF27-A33A16F804AA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C036B721-E433-4BCA-81FD-B9A1AAD7E121}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D19E52B-EB7C-4397-AB59-6D279A89DA75}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4DF28B36-92EB-4E82-A193-8B67CC8031AB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{92E66CFD-F2B6-47DE-AFF0-51709A7C9055}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{41DF6195-8E22-4BAC-82F4-9EA93D7B96F6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{39F97027-5A76-423C-AA6A-1875C7269623}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0D3AC8D1-B58D-4409-B430-49877790FAC9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6498,7 +6498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114A1E2D-4E0F-4B82-9818-28E873CFD76E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78867F82-986A-466C-9673-B81A87948A60}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7777,18 +7777,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{126B0D4F-F61D-4D9C-8E43-9799EB891AA3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B45ABEDF-886E-497B-9C6F-BA09103F1056}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9DC16623-2EB1-48D0-9D72-0AA1B937A943}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{51465B87-A936-4C20-AC16-1F74A25508DB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{EE9032D4-1776-4E69-8CFB-654046EF40CC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5D520497-4112-40C6-A653-5FBE4E2A9966}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B704122E-7329-4D99-820C-4CBDB3A6963B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{94C4ECBA-448D-481A-A7B7-AF5F4FFD8E18}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{774BF5E3-4FAA-465A-8160-C314A49095F0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C101897A-E8E4-4281-A645-18E7303532EA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{336272F1-0C32-44C3-B0B1-84456AC464DD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7C0AA1DD-4675-4F63-866C-48E497654F25}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FEEA6A8A-EBD6-4564-AB55-1080F78050EE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6B556DA1-F142-4DCF-857B-638C79FC68B9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3C2A1C2B-BC24-43D3-92BA-B80D52ADED97}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3E4E1AE0-2E92-481D-8E71-363C0F790FB8}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{229168B2-4E46-4901-90E7-191AE51E8DED}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{660B22D1-612B-4D50-AFEE-66B4B311AEB8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E82B929-7909-42B2-9C00-8CE4510D9598}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5F456A3E-173F-432C-9B42-DC6BFE6CFBE5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4733D967-00CC-4A56-AED3-3E8F3FD18D4B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{775DDDE2-BE60-48AA-A249-CE9188F24C3E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7592BEAC-A499-4D42-8D60-2B9B1E852475}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{727ADAFE-BFA0-41EA-9C4B-399A472ECECD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7801,7 +7801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8315EEE9-0DD8-4209-9551-F6421CACAF0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AD16C0-47A4-45E9-9F82-F58B403544F6}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9080,18 +9080,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8CEB9A8D-BF80-4A1A-BB47-C1D39066E1FD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1D9D0DCC-CBAF-4780-85A0-29C84C15D54E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BD88411A-CE84-4A2B-83AC-7624E7CA2E7B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{470C7422-D24A-4289-BCDE-C13FFF3D7C0E}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3A58B88E-7469-472D-8D9B-0BC6DEADBE41}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3D3837C0-8BA8-4A53-B37F-C02324243FFE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5E4EBAB-43AC-425B-965D-7F49AE9749E7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{92067061-3DAA-412A-A1C6-6188B3CC3A0A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63B45B4E-0DC0-4EF6-A3BD-855608ED65D5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1BF55ED3-5866-498E-BC60-803CB163CB40}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2319DA42-7FA5-4621-BB73-F44F53A4AC45}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FE197717-C4FF-498D-B190-7698C3C57418}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FEE75148-F330-4273-9DF8-2A68D428703F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1435141A-D6B2-49F3-A0B3-48A67E5FA947}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F5430118-9FA5-420C-B61D-0800C638D469}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7543BFFD-D680-4F67-BBE0-F52645EFD597}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{82B1E437-9C48-4849-BDE1-B0EAFF387971}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E7243BE4-6BAD-451D-8788-CC818E9BA33E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B734D6BA-3DA8-46AB-AA94-E4E1CAB2CC8E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D84951FF-81E5-40DB-9F64-7A6F3D7126F4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5BCEDC46-1622-410D-8E6D-C463D6F54079}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3EA02A2F-6CB2-44CE-8A5C-4C782EA6E751}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6AD9F665-4ACA-4239-B50A-9F05462C8FDA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C3367786-AB1F-480A-BFDC-ED7C9853B018}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9104,7 +9104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C1F310-0110-4A0A-9355-ECD15C65B2FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52679A45-5F0E-431E-853A-B7F8827E9722}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10383,18 +10383,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3A4877AE-4962-47A3-963D-ADE97AE57AF9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C78B44D0-A21F-4456-908B-80035AE53496}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0231B630-0B7E-4667-B5A8-D5AA30719AB3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E9985251-0909-4F08-AF97-5284F701BC4C}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2799F1E9-1487-4BF9-BA30-AB0814958809}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5DD9157A-2BDF-4E5E-A840-6BBB8D4B8296}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AF6426CB-E788-4B8E-8867-8BDD72F34013}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3AB4CF5C-571C-4BC3-AAD4-B4B406863727}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{42874E6E-64CF-48CD-A972-CA6AC3197D63}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C6B6A3AC-7B75-4435-9F67-9C46F15F0836}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5F29925C-6488-46E4-9037-D4DDD98EA29B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DC6FDF6B-15FD-407F-B79E-369F7399EA1D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{756164F8-E095-45E4-933C-FFA86816460C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5824F9D4-8947-4D50-8CA6-93015E312B45}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EE83422E-E1F8-429E-BC02-18A04A438257}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2D3C653D-72C0-4D32-B5A3-D057E5C53673}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{70DBA376-913B-43E3-872E-674DCF4B46C1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{94837FDB-21D4-4181-A0E9-F6F3CC385C29}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{91546812-1732-48AF-8C14-5FE02DB9445F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7A680E0F-9D04-46F5-9666-79B122776D31}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BDF4E8D2-45CC-4957-AEAC-77A9D3941D60}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E2209278-BD0D-4A83-93DF-B5B469B2F177}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75C796DD-A052-4D3F-9E1E-5EA5EE507192}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{32AE8CBA-C6AB-4F3B-8115-E8DE3FEEBDD7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10407,7 +10407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C18101-4D39-4CFF-802C-8493376C2A22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2716A9-12E6-4349-AD75-3773B6558F02}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11686,18 +11686,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FE855FD6-B9F9-418B-BB62-DCDAEAB030D3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E94C45D1-A6CA-420B-8B59-459A6C77AFFA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{112EF19B-A969-47C1-90BF-29A85F03B362}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4B44E3E0-86EE-4E69-BBFC-C07F37F5683A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D066A7BC-A0A5-491B-9A13-F4F270F2DD89}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FAB30153-28D0-4BCC-BB70-0ED4EA4FCEA0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8F0BBF03-2CFD-4EF5-B40A-2158516C1982}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4044F712-96CB-443F-B8B1-D3D181EC7F2D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{068604FD-BB99-434C-814E-F4FDCBD6126C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C378378-876A-409D-8755-A1D9F7747160}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{46FC64A2-EF49-4B3F-9C64-B375726E1CAF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{11DEB3E6-E6CB-4063-ABC4-1064E83CEB5C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E61D243C-B0FD-47FC-BE87-6ACF9916D85A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F48CD248-D53A-40CA-9B3D-99F72D321A8B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8BFC5D90-A3DA-44AB-A9D2-0E59281534E6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DF5CAFD5-B304-45E4-A673-9D325A64E192}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C0871149-9555-4C54-88BE-3AB00887FBEC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A7813E6B-A09F-4236-A94F-353403AE765E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B0DE666A-3013-4AF0-A48B-0A2BEF8EF958}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{04D8AAED-05F1-465E-8508-38E3B04DFE15}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3677D89F-7E8F-48BF-AFA2-CF31704A0337}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E43D5685-06DD-4D09-AD27-13C29F3ED34E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8E6021D7-CCAB-498D-986C-966778EDE906}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B6163660-0072-4702-A9F7-51655289BE45}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11710,7 +11710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0C4ACA-D299-49CF-A9B8-7B8825376A6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597D863A-C8F7-4949-B1F8-CF175720BB7C}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12989,18 +12989,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E7688EA7-CE4F-48B3-AFE9-E38EE99CA3DF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A0C06ADD-9613-4900-9391-69D830E92509}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7FD1F609-5570-4102-A9DA-BFFD968E62A9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{70CDD482-F44D-4246-B130-3DA3F7D6E1AF}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2A154D7C-2C6B-4A42-95A6-13A1DA2F704E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{376F35EE-5EDE-47D7-B46D-C1F0709F99E0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6D8E2332-41BC-4388-AA6A-B7BFFCB45959}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3DDC5B58-0AE6-4B30-AD7E-DD727BD1C20C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF2230F2-CFD5-4291-AFF8-71D5854F67CF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{88280E45-C242-4FE1-AF28-2B9566F1BDD8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4FCD3481-217B-48F2-8653-11673415F114}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C0499A7F-1A49-47C6-9B18-EE6C64CFF709}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{548DE9DE-92D6-4393-A6C5-852D9D0B5E10}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5EE3C51B-86D0-40F5-AF55-197C898370BF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C6926CB8-C92C-4673-93E0-031FC69C5D09}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0937051D-E25D-409A-94FE-2CB295A97142}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C5D794F8-1FB4-494E-A4D5-5383BEDC345C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E75B20D0-BDDD-4B2F-95E3-B4596560004E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{291D8D1B-03A9-49AF-97E5-889D8E00A5CD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7DC50F1A-37FC-4AE2-9162-76EA70670FBD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{035CAD8B-02AE-4655-90A5-76984400FC7E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{453BF84A-AE74-44C3-AF5C-3539A2146B67}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{44D77F9A-FEFF-4768-B003-9775410A2C3A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{07894E28-6057-4337-8FF9-0BDABE322214}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13013,7 +13013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70882269-6E39-4CC7-A7E2-9F21F5DDF0A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385FF8E0-28C2-4B45-9003-723B58B42305}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14292,18 +14292,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A850F87-BC20-4F28-8F51-A610877A1CF3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B536C058-1385-4F9B-9E5B-480D4A362F8B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{23B03497-37AF-4F09-BDCF-333BE31AD2BB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7C167394-30F7-4173-8711-932E083AB9E3}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B324D3C7-C66B-4D5F-BC88-4B90F971CA16}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{80002941-01BB-4AEE-8542-EEF8781EA6D0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2096C7C7-51C5-415B-9827-75C443AD0E06}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C008EA14-2531-4EDB-940B-9B8951395A0A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{56AE4DE8-CF75-4E00-B583-EE95DC0D18D4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{922CF8B4-1746-4CC8-AE1B-CE14A4801417}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6253C380-8CB0-4974-BBC7-D68804118E16}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C5A5D8B5-9EB1-4D07-8A54-72404F50CE77}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{53EF0A43-5044-4724-82E2-1F4AECF5F78E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7BEE76E-ACBF-4441-81C1-2052C3ABBD19}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F1D4DB0D-78EA-49F8-AEB7-0F4661A668EA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FE9D7421-5585-471B-BF13-5E11B8ABB9AA}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CEDB081D-6158-48E1-A316-FD19CE008C17}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CC5B3FF9-9977-45A3-836C-EADC70662455}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C96481E-0C4F-48B3-A8DA-3BD64618BACD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BC6D8C66-CEE7-4FE7-8F67-A80BCD226F56}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C31676F-59E7-4B40-802C-2016C18CD401}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0088BD1F-8FC5-4521-B16C-5C21C994EB02}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E480E69-3EAF-4CF7-9497-27E312BA48F2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B8C26502-6B12-48F8-9140-BF0A5848996C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14316,7 +14316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858A6866-67CB-4AB4-915A-8662F7DCD30C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC615D4-40E1-4E03-A290-D30EB6714C79}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15591,18 +15591,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44127F4E-E288-4E38-A217-3021D0C305B0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F835D1DE-0179-4905-BD51-98AB7C695118}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D1770835-E37F-496E-827B-DA3A5126BB93}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0D003A4F-5313-44B2-BF5B-100858A47E50}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0AD222AD-80AC-4D02-8AA5-47E7E6447088}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B8543AD7-D4D7-4F8F-BC30-25ACB66AE329}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{158E8346-8EC1-44E7-9B98-4981F57FA922}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{31280EDF-FD0E-4586-8274-47B06CD460AD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA867B29-2BBB-4997-8507-5DC80FD82704}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7F84411F-566B-4724-B699-0DB4BC81CCCA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A5E22BE-4125-4FAF-B587-A0F16A5DD312}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{19213936-1DD4-486E-9CCD-B28541FF3180}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A3C1AE0A-2D95-4CF9-AEC5-B2302323D3A5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9A22E1E-2196-4C37-8DAD-1D554EB244C0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D284AC06-C1A7-4DF4-91EE-867CAB234FA7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A74E873B-E77D-40E6-9CBE-F180A381C8E2}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7B7A6CF3-0EC8-457B-90F3-E339B7E519F1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0084C48D-4EB7-4CE4-85D2-250C19EC5CB7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D155947-D865-474F-97AE-C37E0EAB3839}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{40A4D051-E5D7-4D47-A32E-1711B6AE6017}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{56C669ED-B9FC-4171-B570-701A54EB7C9E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BA2CEDA1-95DC-49A0-BA04-DDE3218A4FD7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F53DD02A-B046-4EB0-A05D-ACF60E95C270}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BD3D3496-07E1-4866-BCB3-3E841DF05648}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15615,7 +15615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867C08B3-E7D2-4C4D-B5D9-50BA4B8117F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2950DB2-D421-46F5-ABD4-49E924221417}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16890,18 +16890,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AEB5EE4C-8732-4827-A477-6F8A1460D7E4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E8C728D-4BF3-46CF-8717-21C2318F9550}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{588BDAEF-B3FB-4452-86F4-0BE81BFBEC45}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C39C65F6-A968-44FF-A9BF-92CD808512FC}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{28B73AA2-DDA4-4FD5-8750-A4CC7E2F869C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8429F961-6571-4512-9019-63C9DB472F7D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6DFD11A-7CF1-4B66-A403-E40ACDB818BE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2D01ABB3-F498-4B7E-A224-0771E1977A9F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91906840-5213-4D01-B64B-45C6282605A1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2169F78C-B7F1-45EF-8116-882BC32F072C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A0A9D472-9672-47AD-ABF6-7DCAEBB3EECC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{34379CCB-55ED-4C79-ADE7-BE2F6D77FAAF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5B34D307-3EC9-446D-8B2A-AE4EA1A7E098}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C1777F9E-CDD8-402A-9AF3-13F93979312E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6F98C7EB-79C1-4997-A81E-A681950366F6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{27FBD6FF-7508-437F-8A95-6B9EAECF2AE3}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{22E5F019-5747-4A9E-BE0D-1BC6B346349A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{510D8C62-DFB7-4287-A2B8-D2847F08F25D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8C623146-39F8-40AB-9D4C-07E5CE34EE2A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9365832C-9E5A-466C-BA62-D12D5AB34628}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ACE1D91D-5219-41D4-9B01-EB3CF4E4156A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B4176949-9C74-4442-99C2-C1601082C198}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{17E82781-7465-45D3-8463-748481840693}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92ACE38A-7649-435C-96E0-519811FDF891}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
